--- a/municipal/ENG/Demography/Number of stillbirths/Tskaltubo.xlsx
+++ b/municipal/ENG/Demography/Number of stillbirths/Tskaltubo.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 8 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of stillbirths\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA4088-AB08-4278-AD84-47768952391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="405" windowWidth="11145" windowHeight="13200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tskaltubo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+  <si>
+    <t>Number of stillbirths by urban-rural settlements, in the municipality of Tskaltubo</t>
+  </si>
   <si>
     <t>(persons)</t>
   </si>
@@ -38,21 +37,89 @@
     <t>Rural</t>
   </si>
   <si>
-    <t>Number of stillbirths by urban-rural settlements, in the municipality of Tskaltubo</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -68,20 +135,8 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -100,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -109,13 +164,118 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -124,156 +284,79 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,214 +364,200 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -549,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -584,7 +653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -759,281 +828,305 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="11" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="8"/>
+      <c r="B4" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="18">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21">
+        <v>14</v>
+      </c>
+      <c r="D5" s="21">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21">
+        <v>9</v>
+      </c>
+      <c r="F5" s="21">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
+      <c r="G5" s="21">
+        <v>8</v>
+      </c>
+      <c r="H5" s="21">
+        <v>7</v>
+      </c>
+      <c r="I5" s="21">
+        <v>8</v>
+      </c>
+      <c r="J5" s="21">
+        <v>4</v>
+      </c>
+      <c r="K5" s="21">
+        <v>4</v>
+      </c>
+      <c r="L5" s="21">
+        <v>5</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="22">
+        <v>7</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+    <row r="6" spans="1:28">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
+    <row r="7" spans="1:28">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2015</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2016</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2017</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>9</v>
-      </c>
-      <c r="C5" s="16">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16">
-        <v>4</v>
-      </c>
-      <c r="G5" s="16">
-        <v>8</v>
-      </c>
-      <c r="H5" s="16">
-        <v>7</v>
-      </c>
-      <c r="I5" s="16">
-        <v>8</v>
-      </c>
-      <c r="J5" s="16">
-        <v>4</v>
-      </c>
-      <c r="K5" s="16">
-        <v>4</v>
-      </c>
-      <c r="L5" s="16">
+    <row r="8" spans="1:28">
+      <c r="A8" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="M5" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19">
-        <v>3</v>
-      </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
-        <v>1</v>
-      </c>
-      <c r="M6" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="21">
-        <v>6</v>
-      </c>
-      <c r="C7" s="22">
-        <v>11</v>
-      </c>
-      <c r="D7" s="22">
-        <v>8</v>
-      </c>
-      <c r="E7" s="22">
-        <v>8</v>
-      </c>
-      <c r="F7" s="22">
-        <v>3</v>
-      </c>
-      <c r="G7" s="22">
-        <v>8</v>
-      </c>
-      <c r="H7" s="22">
-        <v>6</v>
-      </c>
-      <c r="I7" s="22">
-        <v>7</v>
-      </c>
-      <c r="J7" s="22">
-        <v>3</v>
-      </c>
-      <c r="K7" s="22">
-        <v>3</v>
-      </c>
-      <c r="L7" s="22">
-        <v>4</v>
-      </c>
-      <c r="M7" s="23">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1042,6 +1135,24 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:CD3">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1056,10 +1167,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1074,10 +1185,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1092,10 +1203,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1110,28 +1221,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:CD3">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
